--- a/primerdata_categories.xlsx
+++ b/primerdata_categories.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="417">
   <si>
     <t>No.</t>
   </si>
@@ -2914,8 +2914,8 @@
       <c r="AH15" t="s">
         <v>412</v>
       </c>
-      <c r="AI15" t="e">
-        <v>#N/A</v>
+      <c r="AI15" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="16">
@@ -3663,8 +3663,8 @@
       <c r="AH22" t="s">
         <v>412</v>
       </c>
-      <c r="AI22" t="e">
-        <v>#N/A</v>
+      <c r="AI22" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="23">
@@ -6980,8 +6980,8 @@
       <c r="AH53" t="s">
         <v>412</v>
       </c>
-      <c r="AI53" t="e">
-        <v>#N/A</v>
+      <c r="AI53" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="54">
@@ -9120,8 +9120,8 @@
       <c r="AH73" t="s">
         <v>412</v>
       </c>
-      <c r="AI73" t="e">
-        <v>#N/A</v>
+      <c r="AI73" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="74">
@@ -10404,8 +10404,8 @@
       <c r="AH85" t="s">
         <v>412</v>
       </c>
-      <c r="AI85" t="e">
-        <v>#N/A</v>
+      <c r="AI85" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="86">
